--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E8" s="3">
         <v>89100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>81600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>107500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>111200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>140900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>87900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>216600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E9" s="3">
         <v>83200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>75800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>98300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>93400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>99900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>88100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>80800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>198600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E10" s="3">
         <v>5900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,13 +1005,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1003,11 +1022,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1015,11 +1034,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1027,17 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E17" s="3">
         <v>88600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>82300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>107100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>93800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>81800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>215000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,46 +1454,49 @@
         <v>1100</v>
       </c>
       <c r="E24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E41" s="3">
         <v>50700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>60800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>51500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>56800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>42700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2112,21 +2201,21 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
@@ -2140,298 +2229,319 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E43" s="3">
         <v>93700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>94900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>105600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>117700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>125300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>108200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>105900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>110300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E44" s="3">
         <v>98000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>100200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>83900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>102300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>95200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>104900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>97200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>119700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>96400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>94500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>239500</v>
+      </c>
+      <c r="E46" s="3">
         <v>247900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>255100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>254100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>267000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>271600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>290400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>283000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>284600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>266500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>264200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>244600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>254400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E48" s="3">
         <v>45700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>42100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>47900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,13 +2552,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2463,7 +2573,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2472,13 +2582,16 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>6400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E54" s="3">
         <v>303800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>306800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>310600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>305800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>319000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>322500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>344500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>334800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>336600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>316900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>313700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>293600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>311500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,172 +2927,184 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E58" s="3">
         <v>22700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>32600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>36500</v>
       </c>
       <c r="J58" s="3">
         <v>36500</v>
       </c>
       <c r="K58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="L58" s="3">
         <v>42700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>48100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E59" s="3">
         <v>43800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>48100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>55300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>56700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E60" s="3">
         <v>66500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>71000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>91200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>111800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>96000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>94100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>87600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2977,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -2985,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E62" s="3">
         <v>13500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>145100</v>
+      </c>
+      <c r="E66" s="3">
         <v>154600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>167300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>171400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>186200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>181500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>187900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>168000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>157600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E72" s="3">
         <v>53000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>49300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E76" s="3">
         <v>149200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>151700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>150000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>151700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>158300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>148600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>147600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>145700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>136000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>144300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E94" s="3">
         <v>6200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>600</v>
       </c>
       <c r="L101" s="3">
         <v>600</v>
       </c>
       <c r="M101" s="3">
+        <v>600</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E8" s="3">
         <v>88500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>89100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>81600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>107500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>111200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>140900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>216600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E9" s="3">
         <v>78800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>83200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>98300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>93400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>99900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>123200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>88100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>80800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E10" s="3">
         <v>9700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1025,11 +1045,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1037,11 +1057,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1049,17 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>127400</v>
+      </c>
+      <c r="E17" s="3">
         <v>86100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>81800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>107100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>99600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>134700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>93800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>81800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>215000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <v>1100</v>
       </c>
       <c r="F24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E41" s="3">
         <v>53700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>50700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>49100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>60800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>56800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>42700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2204,21 +2294,21 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2232,321 +2322,342 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E43" s="3">
         <v>97200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>94900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>105600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>117700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>135400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>108200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>105900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>110300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E44" s="3">
         <v>85200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>98000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>100200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>92500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>83900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>102300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>95200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>97200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>119700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>100200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>96400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>94500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E46" s="3">
         <v>239500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>247900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>255100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>254100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>267000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>271600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>290400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>283000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>284600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>266500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>264200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>244600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>254400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E48" s="3">
         <v>46200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>47900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2555,13 +2666,13 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2576,7 +2687,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2585,13 +2696,16 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2819,52 @@
         <v>8100</v>
       </c>
       <c r="E52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F52" s="3">
         <v>6400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>303300</v>
+      </c>
+      <c r="E54" s="3">
         <v>298900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>303800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>306800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>310600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>305800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>319000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>322500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>344500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>334800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>336600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>316900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>313700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>293600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>311500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,184 +3061,196 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E58" s="3">
         <v>11900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>36500</v>
       </c>
       <c r="K58" s="3">
         <v>36500</v>
       </c>
       <c r="L58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="M58" s="3">
         <v>42700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>48100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>44300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>38800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E59" s="3">
         <v>41700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>54700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>63700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>55300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>56700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E60" s="3">
         <v>53600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>91200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>111800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>96000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>94100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>87600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3122,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E62" s="3">
         <v>14600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155200</v>
+      </c>
+      <c r="E66" s="3">
         <v>145100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>167300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>171400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>186200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>181500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>187900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>157600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>167200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E72" s="3">
         <v>53400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>50200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>49300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E76" s="3">
         <v>153900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>149200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>151700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>150000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>151200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>158300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>148600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>147600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>145700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>136000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>144300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E89" s="3">
         <v>24100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>600</v>
       </c>
       <c r="M101" s="3">
         <v>600</v>
       </c>
       <c r="N101" s="3">
+        <v>600</v>
+      </c>
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E8" s="3">
         <v>127600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>88500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>89100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>81600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>107500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>111200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>140900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>87900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>216600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E9" s="3">
         <v>115500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>83200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>98300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>93400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>123200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>88100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>80800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>198600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1048,11 +1068,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1060,11 +1080,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1072,17 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178700</v>
+      </c>
+      <c r="E17" s="3">
         <v>127400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>86100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>88600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>81800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>107100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>99600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>134700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>98600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>81800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>215000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1100</v>
       </c>
       <c r="F24" s="3">
         <v>1100</v>
       </c>
       <c r="G24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
         <v>52900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>53700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>50700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>46100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>56800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>42700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2297,21 +2387,21 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2325,334 +2415,355 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>200</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E43" s="3">
         <v>74700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>97200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>94900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>117700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>135400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>108200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>105900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>110300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E44" s="3">
         <v>104700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>85200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>98000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>100200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>92500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>83900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>97200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>119700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>100200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>96400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>77400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>94500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>263700</v>
+      </c>
+      <c r="E46" s="3">
         <v>239200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>239500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>247900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>249500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>255100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>254100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>267000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>271600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>290400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>283000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>284600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>266500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>264200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>244600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>254400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E48" s="3">
         <v>52000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>47900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2660,7 +2771,7 @@
         <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2669,13 +2780,13 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2690,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -2699,13 +2810,16 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8100</v>
+        <v>6700</v>
       </c>
       <c r="E52" s="3">
         <v>8100</v>
       </c>
       <c r="F52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E54" s="3">
         <v>303300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>298900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>303800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>306800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>310600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>305800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>319000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>322500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>344500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>334800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>336600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>316900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>313700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>293600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>311500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,31 +3141,32 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>25700</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>16900</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3064,196 +3195,208 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E58" s="3">
         <v>15500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>22700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>36500</v>
       </c>
       <c r="L58" s="3">
         <v>36500</v>
       </c>
       <c r="M58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="N58" s="3">
         <v>42700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>48100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>44300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>38800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49000</v>
+        <v>45300</v>
       </c>
       <c r="E59" s="3">
-        <v>41700</v>
+        <v>23200</v>
       </c>
       <c r="F59" s="3">
-        <v>43800</v>
+        <v>24800</v>
       </c>
       <c r="G59" s="3">
-        <v>45500</v>
+        <v>22800</v>
       </c>
       <c r="H59" s="3">
-        <v>48100</v>
+        <v>23200</v>
       </c>
       <c r="I59" s="3">
-        <v>46900</v>
+        <v>24800</v>
       </c>
       <c r="J59" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K59" s="3">
         <v>51200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>64100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>58600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>63700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>56700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E60" s="3">
         <v>64500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>53600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>67600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>83800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>91200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>111800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>96000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>94100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>87600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>94800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="E61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F61" s="3">
         <v>2300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3268,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17300</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="3">
         <v>14600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E66" s="3">
         <v>155200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>145100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>167300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>171400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>186200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>181500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>187900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>168000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>157600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>167200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E72" s="3">
         <v>52600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>55000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>49300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E76" s="3">
         <v>148100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>153900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>149200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>151700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>150000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>151700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>151200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>158300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>153300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>148600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>147600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>145700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>136000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>144300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>600</v>
       </c>
       <c r="N101" s="3">
         <v>600</v>
       </c>
       <c r="O101" s="3">
+        <v>600</v>
+      </c>
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E8" s="3">
         <v>186000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>127600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>88500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>89100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>107500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>111200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>140900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>94900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>87900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>216600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>106600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E9" s="3">
         <v>164100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>83200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>98300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>93400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>123200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>88100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>80800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>198600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>98200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E10" s="3">
         <v>21900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1079,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1071,11 +1091,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1083,29 +1103,32 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E17" s="3">
         <v>178700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>127400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>86100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>88600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>82300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>107100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>99600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>104300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>134700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>93800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>81800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>215000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,69 +1346,73 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>5100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,72 +1521,78 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>800</v>
       </c>
       <c r="F24" s="3">
         <v>1100</v>
@@ -1555,46 +1601,49 @@
         <v>1100</v>
       </c>
       <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-800</v>
-      </c>
       <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-800</v>
-      </c>
       <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-800</v>
-      </c>
       <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>53700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>50700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>60800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>56800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>42700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2390,21 +2480,21 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2418,363 +2508,384 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E43" s="3">
         <v>109500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>74700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>94900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>94600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>117700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>135400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>108200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>105900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>111000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>110300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E44" s="3">
         <v>96400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>104700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>85200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>100200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>92500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>83900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>102300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>95200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>97200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>119700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>100200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>96400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>77400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>94500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E46" s="3">
         <v>263700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>239200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>247900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>249500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>255100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>254100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>267000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>271600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>290400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>283000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>284600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>266500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>264200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>244600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>254400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E48" s="3">
         <v>64300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>52000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>47900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2783,13 +2894,13 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2804,7 +2915,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2813,13 +2924,16 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E52" s="3">
         <v>6700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8100</v>
       </c>
       <c r="F52" s="3">
         <v>8100</v>
       </c>
       <c r="G52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H52" s="3">
         <v>6400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>380500</v>
+      </c>
+      <c r="E54" s="3">
         <v>338100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>303300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>298900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>303800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>306800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>310600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>305800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>319000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>322500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>344500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>334800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>336600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>316900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>313700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>293600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>311500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,35 +3272,36 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E57" s="3">
         <v>27400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>22300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3198,208 +3329,220 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E58" s="3">
         <v>10700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>22700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>32600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>36500</v>
       </c>
       <c r="M58" s="3">
         <v>36500</v>
       </c>
       <c r="N58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="O58" s="3">
         <v>42700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>48100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E59" s="3">
         <v>45300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>56700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E60" s="3">
         <v>83400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>64500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>83800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>91200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>96000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>94100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>87600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>94800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3414,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3422,64 +3565,70 @@
       <c r="T61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E62" s="3">
         <v>14400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E66" s="3">
         <v>180300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>155200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>145100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>167300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>171400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>186200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>181500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>187900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>169300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>168000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>157600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>167200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E72" s="3">
         <v>52800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>55000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>49300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E76" s="3">
         <v>157900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>148100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>153900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>149200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>150000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>151700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>151200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>158300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>153300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>148600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>147600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>145700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>136000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>144300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-800</v>
-      </c>
       <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,31 +4621,32 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="E89" s="3">
         <v>5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,31 +5057,32 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-4200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>600</v>
       </c>
       <c r="O101" s="3">
         <v>600</v>
       </c>
       <c r="P101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E8" s="3">
         <v>225300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>186000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>127600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>88500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>89100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>107500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>111200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>140900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>94900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>87900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>216600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>106600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>248100</v>
+      </c>
+      <c r="E9" s="3">
         <v>207400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>164100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>115500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>93400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>123200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>88100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>80800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>198600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>98200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>17900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>17700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,11 +1102,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1094,11 +1114,11 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1106,29 +1126,32 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>261300</v>
+      </c>
+      <c r="E17" s="3">
         <v>220300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>178700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>127400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>86100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>107100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>134700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>93800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>81800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>215000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,76 +1380,80 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,78 +1564,84 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1100</v>
       </c>
       <c r="G24" s="3">
         <v>1100</v>
@@ -1604,46 +1650,49 @@
         <v>1100</v>
       </c>
       <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,72 +2487,76 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E41" s="3">
         <v>39000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>53700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>50700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>49100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>60800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>56800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>42700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
@@ -2483,21 +2573,21 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2511,370 +2601,391 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>200</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E43" s="3">
         <v>122800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>74700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>93700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>94900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>94600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>105600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>117700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>135400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>108200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>105900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>111000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>110300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E44" s="3">
         <v>133300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>96400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>104700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>85200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>100200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>102300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>95200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>97200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>119700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>100200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>96400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>94500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E46" s="3">
         <v>306600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>263700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>239200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>247900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>249500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>255100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>254100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>267000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>271600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>290400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>283000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>284600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>266500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>264200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>244600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>254400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E48" s="3">
         <v>62500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>64300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>52000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>44400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>47900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2882,13 +2993,13 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2897,13 +3008,13 @@
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2918,7 +3029,7 @@
         <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2927,13 +3038,16 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8100</v>
       </c>
       <c r="G52" s="3">
         <v>8100</v>
       </c>
       <c r="H52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I52" s="3">
         <v>6400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>389400</v>
+      </c>
+      <c r="E54" s="3">
         <v>380500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>338100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>303300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>298900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>303800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>306800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>310600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>305800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>319000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>322500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>344500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>334800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>336600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>316900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>313700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>293600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>311500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,38 +3403,39 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E57" s="3">
         <v>38100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>22300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3332,185 +3463,197 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E58" s="3">
         <v>56600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>22700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>32600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>36500</v>
       </c>
       <c r="N58" s="3">
         <v>36500</v>
       </c>
       <c r="O58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="P58" s="3">
         <v>42700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>48100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>29800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E59" s="3">
         <v>43000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>56700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E60" s="3">
         <v>137700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>64500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>71000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>83800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>91200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>96000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>94100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>87600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>94800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,34 +3661,34 @@
         <v>5200</v>
       </c>
       <c r="E61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F61" s="3">
         <v>5400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3560,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -3568,67 +3711,73 @@
       <c r="U61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E62" s="3">
         <v>14300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E66" s="3">
         <v>227900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>155200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>145100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>158900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>155800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>167300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>171400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>186200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>181500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>187900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>169300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>168000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>157600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>167200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E72" s="3">
         <v>52700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>54300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>49300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E76" s="3">
         <v>152600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>157900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>148100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>153900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>149200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>152000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>151700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>150000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>151700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>151200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>158300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>153300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>148600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>147600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>145700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>136000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>144300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,17 +4820,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4648,8 +4847,8 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,17 +5278,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5084,8 +5305,8 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>38700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>600</v>
       </c>
       <c r="P101" s="3">
         <v>600</v>
       </c>
       <c r="Q101" s="3">
+        <v>600</v>
+      </c>
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E8" s="3">
         <v>251400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>225300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>186000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>127600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>88500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>89100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>107500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>111200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>101500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>94900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>87900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>216600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>106600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E9" s="3">
         <v>248100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>207400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>164100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>115500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>83200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>123200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>88100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>80800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>198600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>98200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>17700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>18000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,40 +1105,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1129,29 +1149,32 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E17" s="3">
         <v>261300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>220300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>178700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>127400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>86100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>107100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>134700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>93800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>81800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>215000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,82 +1414,86 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,84 +1607,90 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1100</v>
       </c>
       <c r="H24" s="3">
         <v>1100</v>
@@ -1653,46 +1699,49 @@
         <v>1100</v>
       </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,79 +2574,83 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E41" s="3">
         <v>44500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>52200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>53700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>50700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>49100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>60800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>46100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>56800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>42700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2576,21 +2666,21 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -2604,405 +2694,426 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>200</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E43" s="3">
         <v>131600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>122800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>97200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>93700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>94900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>94600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>105600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>117700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>125300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>135400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>108200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>111800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>105900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>111000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>110300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E44" s="3">
         <v>128800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>133300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>96400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>104700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>85200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>98000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>100200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>102300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>95200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>97200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>119700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>100200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>96400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>94500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>289800</v>
+      </c>
+      <c r="E46" s="3">
         <v>312000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>306600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>263700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>239200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>247900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>249500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>255100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>254100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>267000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>271600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>290400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>283000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>284600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>266500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>264200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>244600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>254400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E48" s="3">
         <v>63600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>64300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>52000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>44400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>47900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3011,13 +3122,13 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3032,7 +3143,7 @@
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -3041,13 +3152,16 @@
         <v>200</v>
       </c>
       <c r="U49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
         <v>9900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8100</v>
       </c>
       <c r="H52" s="3">
         <v>8100</v>
       </c>
       <c r="I52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J52" s="3">
         <v>6400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>360800</v>
+      </c>
+      <c r="E54" s="3">
         <v>389400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>380500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>338100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>303300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>298900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>303800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>306800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>310600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>305800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>319000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>322500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>344500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>334800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>336600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>316900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>313700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>293600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>311500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,41 +3534,42 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E57" s="3">
         <v>44800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>27400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>22300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3466,232 +3597,244 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E58" s="3">
         <v>62700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>56600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>22700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>32600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>36500</v>
       </c>
       <c r="O58" s="3">
         <v>36500</v>
       </c>
       <c r="P58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>42700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>48100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>29800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E59" s="3">
         <v>54800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>43000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>58600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>63700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>55300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>56700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E60" s="3">
         <v>162200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>137700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>83400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>53600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>83800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>91200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>96000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>94100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>87600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>94800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5200</v>
+        <v>13900</v>
       </c>
       <c r="E61" s="3">
         <v>5200</v>
       </c>
       <c r="F61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G61" s="3">
         <v>5400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3706,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -3714,70 +3857,76 @@
       <c r="V61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E62" s="3">
         <v>12700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E66" s="3">
         <v>241900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>227900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>155200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>145100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>154600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>158900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>155800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>167300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>171400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>186200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>181500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>187900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>168000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>157600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>167200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E72" s="3">
         <v>50200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>52700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>49300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E76" s="3">
         <v>147500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>152600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>157900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>148100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>153900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>149200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>152000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>151700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>150000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>151700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>151200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>158300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>153300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>148600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>147600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>145700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>136000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>144300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,20 +5019,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4850,8 +5049,8 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-9200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,20 +5499,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5308,8 +5529,8 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E100" s="3">
         <v>3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>38700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>600</v>
       </c>
       <c r="Q101" s="3">
         <v>600</v>
       </c>
       <c r="R101" s="3">
+        <v>600</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,309 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>310700</v>
+      </c>
+      <c r="E8" s="3">
         <v>207400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>251400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>225300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>186000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>127600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>88500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>89100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>107500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>111200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>94900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>87900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>216600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>106600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>289300</v>
+      </c>
+      <c r="E9" s="3">
         <v>193900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>248100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>207400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>164100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>83200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>99900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>123200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>88100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>80800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>198600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>98200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E10" s="3">
         <v>13500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>17700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,17 +1154,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1152,29 +1172,32 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>306900</v>
+      </c>
+      <c r="E17" s="3">
         <v>205500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>261300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>220300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>127400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>86100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>134700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>93800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>81800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>215000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,88 +1448,92 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1545,8 +1582,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,90 +1650,96 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1100</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
@@ -1702,46 +1748,49 @@
         <v>1100</v>
       </c>
       <c r="K24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,85 +2661,89 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E41" s="3">
         <v>44600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>53700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>50700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>48600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>46100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>56800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>42700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2669,21 +2759,21 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
@@ -2697,426 +2787,447 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>200</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E43" s="3">
         <v>110900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>131600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>122800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>97200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>93700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>94900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>94600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>105600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>117700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>125300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>135400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>108200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>111800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>105900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>110300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E44" s="3">
         <v>128000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>133300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>96400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>104700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>85200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>98000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>100200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>102300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>95200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>104900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>97200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>119700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>100200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>96400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>94500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>285700</v>
+      </c>
+      <c r="E46" s="3">
         <v>289800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>312000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>306600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>263700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>239200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>247900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>249500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>255100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>254100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>267000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>271600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>290400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>283000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>284600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>266500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>264200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>244600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>254400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E48" s="3">
         <v>59000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>62500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>64300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>52000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>42500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>47900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3125,13 +3236,13 @@
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3146,7 +3257,7 @@
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
@@ -3155,13 +3266,16 @@
         <v>200</v>
       </c>
       <c r="V49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3407,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8100</v>
       </c>
       <c r="I52" s="3">
         <v>8100</v>
       </c>
       <c r="J52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E54" s="3">
         <v>360800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>389400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>380500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>338100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>303300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>298900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>306800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>310600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>305800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>319000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>322500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>344500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>334800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>336600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>316900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>313700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>293600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>311500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,44 +3665,45 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E57" s="3">
         <v>37700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>27400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21100</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3600,244 +3731,256 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E58" s="3">
         <v>44200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>62700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>56600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>32600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>36500</v>
       </c>
       <c r="P58" s="3">
         <v>36500</v>
       </c>
       <c r="Q58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="R58" s="3">
         <v>42700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>48100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E59" s="3">
         <v>47500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>58600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>63700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>55300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>57800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>56700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E60" s="3">
         <v>129400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>162200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>137700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>53600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>66500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>83800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>91200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>111800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>96000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>94100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>87600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>94800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E61" s="3">
         <v>13900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5200</v>
       </c>
       <c r="F61" s="3">
         <v>5200</v>
       </c>
       <c r="G61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H61" s="3">
         <v>5400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3852,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -3860,73 +4003,79 @@
       <c r="W61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E66" s="3">
         <v>213700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>241900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>227900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>180300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>155200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>145100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>154600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>158900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>155800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>167300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>171400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>186200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>181500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>187900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>168000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>157600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>167200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E72" s="3">
         <v>49900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>50200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>52700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>55000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>51000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>49300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>139900</v>
+      </c>
+      <c r="E76" s="3">
         <v>147100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>147500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>152600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>157900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>148100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>153900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>149200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>152000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>151700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>150000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>151700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>151200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>158300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>153300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>148600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>147600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>145700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>136000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>144300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,23 +5218,24 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5052,8 +5251,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>24100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-11100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,23 +5720,24 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -5532,8 +5753,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6288,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E100" s="3">
         <v>8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>38700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>600</v>
       </c>
       <c r="R101" s="3">
         <v>600</v>
       </c>
       <c r="S101" s="3">
+        <v>600</v>
+      </c>
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>8600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,321 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E8" s="3">
         <v>310700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>207400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>251400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>225300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>186000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>127600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>88500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>81600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>107500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>111200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>94900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>87900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>216600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>106600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207500</v>
+      </c>
+      <c r="E9" s="3">
         <v>289300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>193900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>248100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>207400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>164100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>78800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>83200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>75800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>93400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>99900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>123200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>88100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>80800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>198600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>98200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E10" s="3">
         <v>21400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>21900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>18000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>8400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,17 +1176,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1175,29 +1194,32 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E17" s="3">
         <v>306900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>205500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>261300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>127400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>86100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>134700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>93800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>81800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>215000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>3800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,15 +1564,15 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1585,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,96 +1692,102 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1100</v>
       </c>
       <c r="J24" s="3">
         <v>1100</v>
@@ -1751,46 +1796,49 @@
         <v>1100</v>
       </c>
       <c r="L24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,91 +2747,95 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E41" s="3">
         <v>47500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>53700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>64000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>48600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>46100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>56800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>48200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>42700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,21 +2851,21 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
@@ -2790,152 +2879,161 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>200</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E43" s="3">
         <v>101500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>110900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>131600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>122800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>97200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>93700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>94900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>94600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>105600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>117700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>135400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>108200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>111800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>105900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>111000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>110300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E44" s="3">
         <v>128800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>133300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>96400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>104700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>85200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>98000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>100200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>92500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>102300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>95200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>104900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>97200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>119700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>100200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>96400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>94500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2943,271 +3041,283 @@
         <v>7000</v>
       </c>
       <c r="E45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>299500</v>
+      </c>
+      <c r="E46" s="3">
         <v>285700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>289800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>312000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>306600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>263700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>247900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>249500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>255100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>254100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>267000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>271600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>290400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>283000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>284600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>266500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>264200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>244600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>254400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E47" s="3">
         <v>2100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E48" s="3">
         <v>55000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>64300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>52000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>42500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>40300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>47900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3215,22 +3325,22 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -3239,13 +3349,13 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
@@ -3260,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3269,13 +3379,16 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E52" s="3">
         <v>9100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>8100</v>
       </c>
       <c r="J52" s="3">
         <v>8100</v>
       </c>
       <c r="K52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L52" s="3">
         <v>6400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E54" s="3">
         <v>352000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>360800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>389400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>380500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>338100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>303300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>303800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>306800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>310600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>305800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>319000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>322500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>344500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>334800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>336600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>316900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>313700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>293600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>311500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,47 +3795,48 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E57" s="3">
         <v>44500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>21100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3734,256 +3864,268 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E58" s="3">
         <v>39100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>44200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>62700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>56600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>32600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>36500</v>
       </c>
       <c r="Q58" s="3">
         <v>36500</v>
       </c>
       <c r="R58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="S58" s="3">
         <v>42700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>48100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>44300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>38100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47500</v>
+      </c>
+      <c r="E59" s="3">
         <v>47700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>58600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>51700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>57800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>56700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>133600</v>
+      </c>
+      <c r="E60" s="3">
         <v>131400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>129400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>137700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>83400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>64500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>53600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>83800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>91200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>111800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>96000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>94100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>87600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>94800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E61" s="3">
         <v>13800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5200</v>
       </c>
       <c r="G61" s="3">
         <v>5200</v>
       </c>
       <c r="H61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I61" s="3">
         <v>5400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3998,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -4006,76 +4148,82 @@
       <c r="X61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E62" s="3">
         <v>12000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>219400</v>
+      </c>
+      <c r="E66" s="3">
         <v>212100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>213700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>241900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>227900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>180300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>155200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>145100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>158900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>155800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>167300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>171400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>186200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>181500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>187900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>168000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>157600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>167200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E72" s="3">
         <v>50800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>50200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>52700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>51000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>46000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>49300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>151600</v>
+      </c>
+      <c r="E76" s="3">
         <v>139900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>147100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>147500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>152600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>157900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>148100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>153900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>149200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>152000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>151700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>150000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>151700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>151200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>158300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>153300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>148600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>147600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>145700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>136000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>144300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,15 +5428,15 @@
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5254,8 +5452,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>5700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-46300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-11100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,31 +5940,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5756,8 +5976,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>38700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>600</v>
       </c>
       <c r="S101" s="3">
         <v>600</v>
       </c>
       <c r="T101" s="3">
+        <v>600</v>
+      </c>
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-14900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>8600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-7700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>APWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E8" s="3">
         <v>226500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>310700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>207400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>251400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>225300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>186000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>127600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>88500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>89100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>81600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>107500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>101200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>111200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>106100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>94900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>87900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>216600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>106600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>168000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E9" s="3">
         <v>207500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>289300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>193900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>248100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>207400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>164100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>78800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>83200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>75800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>93400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>99900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>98100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>123200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>93400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>88100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>80800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>198600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>98200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>154300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>21900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>18000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>13700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,17 +1199,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1197,29 +1217,32 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>196300</v>
+      </c>
+      <c r="E17" s="3">
         <v>220300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>306900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>205500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>261300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>220300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>178700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>86100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>88600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>81800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>106200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>134700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>98600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>93800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>81800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>215000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
         <v>6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1567,15 +1604,15 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>-9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,102 +1735,108 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>1100</v>
@@ -1799,46 +1845,49 @@
         <v>1100</v>
       </c>
       <c r="M24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,97 +2834,101 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E41" s="3">
         <v>54000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>64000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>48600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>54000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>46100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>48900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>56800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>42700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2854,21 +2944,21 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
@@ -2882,442 +2972,463 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>200</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E43" s="3">
         <v>107800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>101500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>110900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>131600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>122800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>74700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>97200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>93700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>94900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>94600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>105600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>117700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>135400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>108200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>105900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>111000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>110300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>99900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E44" s="3">
         <v>130600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>133300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>96400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>104700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>98000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>100200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>92500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>83900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>102300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>95200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>104900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>97200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>119700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>100200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>96400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>94500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7000</v>
+        <v>9400</v>
       </c>
       <c r="E45" s="3">
         <v>7000</v>
       </c>
       <c r="F45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274200</v>
+      </c>
+      <c r="E46" s="3">
         <v>299500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>285700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>289800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>312000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>263700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>247900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>249500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>255100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>254100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>267000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>271600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>290400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>283000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>284600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>266500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>264200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>244600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>254400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>248600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E48" s="3">
         <v>59400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>59000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>64300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>52000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>42500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>40800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>40300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>47900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,22 +3439,22 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
+        <v>100</v>
+      </c>
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3352,13 +3463,13 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3373,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3382,13 +3493,16 @@
         <v>200</v>
       </c>
       <c r="X49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>9600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>8100</v>
       </c>
       <c r="K52" s="3">
         <v>8100</v>
       </c>
       <c r="L52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M52" s="3">
         <v>6400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>344800</v>
+      </c>
+      <c r="E54" s="3">
         <v>371000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>352000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>360800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>389400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>380500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>338100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>298900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>303800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>310600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>305800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>319000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>322500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>344500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>334800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>336600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>316900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>313700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>293600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>311500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>306200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,50 +3926,51 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E57" s="3">
         <v>39900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>21100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3867,268 +3998,280 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E58" s="3">
         <v>46200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>39100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>44200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>62700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>56600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>32600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>36500</v>
       </c>
       <c r="R58" s="3">
         <v>36500</v>
       </c>
       <c r="S58" s="3">
+        <v>36500</v>
+      </c>
+      <c r="T58" s="3">
         <v>42700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>48100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>44300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>29800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>38100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E59" s="3">
         <v>47500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>43000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>54700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>58600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>51700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>56700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>57900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E60" s="3">
         <v>133600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>129400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>137700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>83400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>64500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>53600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>67600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>71000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>71700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>83800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>91200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>96000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>94100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>87600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>94800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>92800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
         <v>14100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13900</v>
-      </c>
-      <c r="G61" s="3">
-        <v>5200</v>
       </c>
       <c r="H61" s="3">
         <v>5200</v>
       </c>
       <c r="I61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J61" s="3">
         <v>5400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -4143,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E62" s="3">
         <v>11900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E66" s="3">
         <v>219400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>212100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>213700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>241900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>227900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>180300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>155200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>145100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>154800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>158900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>155800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>167300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>171400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>186200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>181500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>187900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>169300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>168000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>157600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>167200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,70 +5000,73 @@
         <v>54100</v>
       </c>
       <c r="E72" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F72" s="3">
         <v>50800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>50200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>52600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>55000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>55800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>50800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>46000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>49300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>47400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E76" s="3">
         <v>151600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>147100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>147500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>152600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>157900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>148100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>149200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>152000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>151700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>150000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>151700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>151200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>158300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>153300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>148600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>147600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>145700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>136000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>144300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>142000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5431,15 +5630,15 @@
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5455,8 +5654,8 @@
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-11100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-9200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5967,8 +6188,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5979,8 +6200,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>38700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>600</v>
       </c>
       <c r="T101" s="3">
         <v>600</v>
       </c>
       <c r="U101" s="3">
+        <v>600</v>
+      </c>
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-14900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>8600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-7700</v>
       </c>
     </row>
